--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_Imager.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_Imager.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Connect Device with WIFI</t>
   </si>
   <si>
-    <t>Signature-JS-4.1</t>
-  </si>
-  <si>
     <t>Change Start page</t>
   </si>
   <si>
@@ -75,12 +72,12 @@
     <t>Enable First available Imager device</t>
   </si>
   <si>
-    <t><![CDATA[wait(3);
+    <t>wait(3);
 PullConfigxml;
-ChangeConfigxml(Configuration/Applications/Application/General,StartPage,<StartPage value="http://127.0.0.1:8082/app/" name="Menu"/>);
-ChangeConfigxml(Configuration,WebServer,<WebServer>endl  <Enabled VALUE="1"/>endl  <Port VALUE="8082"/>endl  <WebFolder VALUE="\\auto\\PB\"/>endl  <Public VALUE="1"/>endl</WebServer>endl);
-ChangeConfigxml(Configuration/Screen,FullScreen,<FullScreen value="1"/>);
-PushConfigxml;]]></t>
+ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\PB\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
+ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="1"/&gt;);
+PushConfigxml;</t>
   </si>
   <si>
     <t>wait(3);
@@ -351,24 +348,6 @@
 };</t>
   </si>
   <si>
-    <t>validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : Imager
-};
-validate3
-{
-validate_Text_Exists=VT056-1140
-};
-validate4
-{
-validate_Result=
-};</t>
-  </si>
-  <si>
     <t>Destination Url(http)</t>
   </si>
   <si>
@@ -433,16 +412,37 @@
 {
 validate_Result=Sent
 };</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : Imager
+};
+validate3
+{
+validate_Text_Exists=VT056-1140
+};
+validate4
+{
+validate_Result=Error Code: 12014
+};</t>
+  </si>
+  <si>
+    <t>PB-Imager</t>
   </si>
   <si>
     <t>wait(3);
 validate1;
 link_Click(imager_test_link);
 validate2;
-SelectTestToRun(VT056_1138_string);
+SelectTestToRun(VT056_1146_string);
 validate3;
 ClickRunTest(runtest_top_xpath);
-wait(7);
+wait(15);
 validate4;</t>
   </si>
   <si>
@@ -450,10 +450,21 @@
 validate1;
 link_Click(imager_test_link);
 validate2;
-SelectTestToRun(VT056_1139_string);
+SelectTestToRun(VT056_1143_string);
 validate3;
 ClickRunTest(runtest_top_xpath);
-wait(7);
+wait(15);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(imager_test_link);
+validate2;
+SelectTestToRun(VT056_1142_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(15);
 validate4;</t>
   </si>
   <si>
@@ -466,7 +477,7 @@
 SelectTestToRun(VT056_1140_string);
 validate3;
 ClickRunTest(runtest_top_xpath);
-wait(7);
+wait(15);
 validate4;</t>
   </si>
   <si>
@@ -474,10 +485,10 @@
 validate1;
 link_Click(imager_test_link);
 validate2;
-SelectTestToRun(VT056_1142_string);
+SelectTestToRun(VT056_1139_string);
 validate3;
 ClickRunTest(runtest_top_xpath);
-wait(7);
+wait(15);
 validate4;</t>
   </si>
   <si>
@@ -485,32 +496,17 @@
 validate1;
 link_Click(imager_test_link);
 validate2;
-SelectTestToRun(VT056_1143_string);
+SelectTestToRun(VT056_1138_string);
 validate3;
 ClickRunTest(runtest_top_xpath);
-wait(7);
+wait(15);
 validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(imager_test_link);
-validate2;
-SelectTestToRun(VT056_1146_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-wait(7);
-validate4;</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -987,20 +983,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="44.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.02265625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="44.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5">
@@ -1014,7 +1008,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1043,27 +1037,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="11">
         <v>1</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>54</v>
-      </c>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="191.25">
       <c r="A3" s="11">
@@ -1077,21 +1069,19 @@
         <v>9</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="11">
         <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
-        <v>54</v>
-      </c>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="191.25">
       <c r="A4" s="11">
@@ -1105,21 +1095,19 @@
         <v>9</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="11">
         <v>2</v>
       </c>
       <c r="G4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>26</v>
-      </c>
       <c r="I4" s="14"/>
-      <c r="J4" s="14" t="s">
-        <v>54</v>
-      </c>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="191.25">
       <c r="A5" s="11">
@@ -1133,21 +1121,19 @@
         <v>9</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="11">
         <v>2</v>
       </c>
       <c r="G5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
-        <v>54</v>
-      </c>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" ht="191.25">
       <c r="A6" s="11">
@@ -1161,21 +1147,19 @@
         <v>9</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="11">
         <v>2</v>
       </c>
       <c r="G6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="I6" s="14"/>
-      <c r="J6" s="14" t="s">
-        <v>54</v>
-      </c>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" ht="146.25">
       <c r="A7" s="11">
@@ -1189,16 +1173,16 @@
         <v>9</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="11">
         <v>2</v>
       </c>
       <c r="G7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
@@ -1215,23 +1199,23 @@
         <v>9</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="11">
         <v>2</v>
       </c>
       <c r="G8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>34</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" ht="191.25">
       <c r="A9" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="11">
         <v>1</v>
@@ -1241,23 +1225,23 @@
         <v>9</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="11">
         <v>3</v>
       </c>
       <c r="G9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:10" ht="191.25">
       <c r="A10" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="11">
         <v>1</v>
@@ -1267,23 +1251,23 @@
         <v>9</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F10" s="11">
         <v>3</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10" ht="191.25">
       <c r="A11" s="11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11" s="11">
         <v>1</v>
@@ -1293,23 +1277,23 @@
         <v>9</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11" s="11">
         <v>3</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:10" ht="191.25">
-      <c r="A12" s="15">
-        <v>12</v>
+      <c r="A12" s="11">
+        <v>11</v>
       </c>
       <c r="B12" s="15">
         <v>1</v>
@@ -1319,23 +1303,23 @@
         <v>9</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="15">
         <v>3</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:10" ht="191.25">
       <c r="A13" s="11">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B13" s="11">
         <v>1</v>
@@ -1345,23 +1329,23 @@
         <v>9</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="11">
         <v>3</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:10" ht="191.25">
       <c r="A14" s="11">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B14" s="11">
         <v>1</v>
@@ -1371,23 +1355,23 @@
         <v>9</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F14" s="11">
         <v>3</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" ht="191.25">
       <c r="A15" s="11">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B15" s="11">
         <v>1</v>
@@ -1397,16 +1381,16 @@
         <v>9</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F15" s="11">
         <v>3</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -1427,9 +1411,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1">
